--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HumanName</t>
+    <t>http://hl7.org/fhir/StructureDefinition/HumanName|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -487,7 +487,7 @@
     <t>Civilités des personnes physiques</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
   </si>
   <si>
     <t>XPN.5</t>
@@ -883,7 +883,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="27.484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
